--- a/StarEnergi/App_Data/daily_log/DailyLogNight_BaseTemplate.xlsx
+++ b/StarEnergi/App_Data/daily_log/DailyLogNight_BaseTemplate.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>STAR ENERGY GEOTHERMAL (WAYANG WINDU) LTD.</t>
   </si>
@@ -83,33 +83,6 @@
   </si>
   <si>
     <t>Unit-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mvar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  kV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  mBar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  kg/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Bar</t>
   </si>
   <si>
     <t>U1 NCG</t>
@@ -214,28 +187,6 @@
     <t>WWD Pond</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
     <t>Level(m)</t>
   </si>
   <si>
@@ -259,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,12 +286,6 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -502,26 +447,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1156,7 +1081,7 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1167,7 +1092,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,99 +1153,91 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="32" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="30" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,52 +1245,54 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="62" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,106 +1304,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="36" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="64" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1889,15 +1799,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="65"/>
+    <col min="1" max="1" width="9.140625" style="61"/>
     <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="66"/>
+    <col min="3" max="3" width="9.140625" style="62"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1920,36 +1830,36 @@
     <row r="2" spans="1:14">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" ht="19.5">
       <c r="A4" s="9"/>
@@ -2006,108 +1916,108 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="105"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A8" s="106">
+      <c r="A8" s="102">
         <v>41459</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="125"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="93">
+      <c r="A12" s="89">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2119,7 +2029,7 @@
       <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="86" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2142,8 +2052,8 @@
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
@@ -2153,7 +2063,7 @@
       <c r="E13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="26" t="s">
         <v>17</v>
       </c>
@@ -2163,453 +2073,415 @@
       <c r="I13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="37" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="90"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="90"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="90"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="39"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="90"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="39"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="90"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="90"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="90"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="90"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="90"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="90"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="90"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="90"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="90"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="90"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="90"/>
+      <c r="B29" s="50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="41" t="s">
+      <c r="C29" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="94"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="41" t="s">
+      <c r="D29" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="94"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="94"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="41" t="s">
+      <c r="E29" s="50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="94"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="41" t="s">
+      <c r="F29" s="50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="94"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="41" t="s">
+      <c r="G29" s="50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="94"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="94"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="94"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="41" t="s">
+      <c r="H29" s="50" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15">
-      <c r="A24" s="94"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="41" t="s">
+      <c r="I29" s="51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="94"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="94"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="41" t="s">
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A30" s="90"/>
+      <c r="B30" s="52" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="94"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="41" t="s">
+      <c r="C30" s="52" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="94"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="94"/>
-      <c r="B29" s="54" t="s">
+      <c r="D30" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="E30" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="G30" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="I30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" thickTop="1">
+      <c r="A31" s="90"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="90"/>
+      <c r="B32" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="C32" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="D32" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="E32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="F32" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="56" t="s">
+      <c r="G32" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="56" t="s">
+      <c r="H32" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="56" t="s">
+      <c r="I32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="56" t="s">
+      <c r="J32" s="93"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A33" s="90"/>
+      <c r="B33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="C33" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" thickTop="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="94"/>
-      <c r="B32" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="39"/>
     </row>
     <row r="34" spans="1:14" ht="13.5" thickTop="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="64" t="s">
-        <v>30</v>
-      </c>
+      <c r="A34" s="90"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="43">

--- a/StarEnergi/App_Data/daily_log/DailyLogNight_BaseTemplate.xlsx
+++ b/StarEnergi/App_Data/daily_log/DailyLogNight_BaseTemplate.xlsx
@@ -1265,53 +1265,6 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="6" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="6" borderId="62" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="2" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,6 +1348,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,52 +1433,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1071" name="Picture 1" descr="SE-Logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="38100" y="38100"/>
-          <a:ext cx="1181100" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1072" name="Picture 1" descr="SE-Logo"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1799,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1830,36 +1784,36 @@
     <row r="2" spans="1:14">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="96"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="79"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="19.5">
       <c r="A4" s="9"/>
@@ -1916,108 +1870,108 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="101"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A8" s="102">
+      <c r="A8" s="85">
         <v>41459</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="80"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="109"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="81" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="114"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="89">
+      <c r="A12" s="118">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="115" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2029,7 +1983,7 @@
       <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="115" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2052,8 +2006,8 @@
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2017,7 @@
       <c r="E13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="26" t="s">
         <v>17</v>
       </c>
@@ -2084,7 +2038,7 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A14" s="90"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -2093,14 +2047,14 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
       <c r="L14" s="34"/>
       <c r="M14" s="32"/>
       <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="90"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="36"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -2109,14 +2063,14 @@
       <c r="G15" s="37"/>
       <c r="H15" s="31"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="38"/>
       <c r="M15" s="31"/>
       <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="90"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="36"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -2125,14 +2079,14 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="90"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="36"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -2141,14 +2095,14 @@
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="90"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="36"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -2157,14 +2111,14 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="90"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="36"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -2173,14 +2127,14 @@
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="90"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="36"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -2189,14 +2143,14 @@
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="90"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="36"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -2205,14 +2159,14 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="90"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="36"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
@@ -2221,14 +2175,14 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="90"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="36"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2237,14 +2191,14 @@
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="90"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="36"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -2253,14 +2207,14 @@
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="90"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="36"/>
       <c r="C25" s="46"/>
       <c r="D25" s="31"/>
@@ -2269,14 +2223,14 @@
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="71"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="90"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="36"/>
       <c r="C26" s="46"/>
       <c r="D26" s="31"/>
@@ -2285,14 +2239,14 @@
       <c r="G26" s="47"/>
       <c r="H26" s="46"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="90"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="49"/>
       <c r="C27" s="46"/>
       <c r="D27" s="31"/>
@@ -2301,14 +2255,14 @@
       <c r="G27" s="47"/>
       <c r="H27" s="46"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="90"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
       <c r="D28" s="32"/>
@@ -2317,14 +2271,14 @@
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="75"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="90"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="50" t="s">
         <v>22</v>
       </c>
@@ -2349,14 +2303,14 @@
       <c r="I29" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A30" s="90"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="52" t="s">
         <v>30</v>
       </c>
@@ -2381,14 +2335,14 @@
       <c r="I30" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="39"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" thickTop="1">
-      <c r="A31" s="90"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
@@ -2397,14 +2351,14 @@
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
       <c r="I31" s="54"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
       <c r="N31" s="39"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="90"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="55" t="s">
         <v>34</v>
       </c>
@@ -2429,14 +2383,14 @@
       <c r="I32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="39"/>
     </row>
     <row r="33" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A33" s="90"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="52" t="s">
         <v>42</v>
       </c>
@@ -2461,14 +2415,14 @@
       <c r="I33" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="31"/>
       <c r="M33" s="46"/>
       <c r="N33" s="39"/>
     </row>
     <row r="34" spans="1:14" ht="13.5" thickTop="1">
-      <c r="A34" s="90"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
@@ -2477,41 +2431,14 @@
       <c r="G34" s="63"/>
       <c r="H34" s="64"/>
       <c r="I34" s="65"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="94"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="66"/>
       <c r="M34" s="66"/>
       <c r="N34" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="B11:I11"/>
@@ -2528,6 +2455,33 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
